--- a/BackTest/2020-01-22 BackTest WET.xlsx
+++ b/BackTest/2020-01-22 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-11343678.37472757</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-11690685.00562757</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-11814119.65342757</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-11851250.21072757</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-11863781.56362757</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-11970454.82042757</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-11981450.15242757</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-11935992.01082757</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-11937352.01082757</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-12666676.68972757</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-13400108.64722757</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-13398784.64722757</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-14699061.05482757</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-14735995.15822757</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-14468785.65245615</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-14413310.60735615</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-14312832.27135615</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-14376873.58295615</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-14837366.63425615</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-14837153.49515615</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-14837353.49515615</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-14837020.49515615</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-14760301.29645615</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-14698117.59182757</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-15736286.46252757</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-15723794.10022757</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-15794724.52152757</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-15771761.07972757</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-15663208.40172757</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-15663208.40172757</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-15331545.91152757</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-15702834.12582757</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-15949507.60532757</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,19 @@
         <v>-15429970.41372757</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.94</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2435,23 @@
         <v>-15632513.37882757</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>3.95</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2476,23 @@
         <v>-15975636.64472757</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2517,23 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2558,23 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>3.922</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2601,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2638,23 @@
         <v>-17301457.48962757</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,22 +2679,23 @@
         <v>-17294483.91882757</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>3.905</v>
       </c>
       <c r="J68" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2874,22 +2722,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2914,24 +2759,23 @@
         <v>-17326264.26572757</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2802,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2992,18 +2839,23 @@
         <v>-17326264.22332757</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3028,18 +2880,23 @@
         <v>-17316264.22332757</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>3.985</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +2923,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3100,18 +2960,23 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3136,18 +3001,23 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>3.999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3172,18 +3042,23 @@
         <v>-17299274.15832757</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>3.999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3208,18 +3083,23 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>3.995</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3244,18 +3124,23 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>3.96</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3280,18 +3165,23 @@
         <v>-17395384.24632757</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>3.96</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3316,18 +3206,23 @@
         <v>-17408055.47022757</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3352,18 +3247,23 @@
         <v>-17383159.66064847</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>3.958</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3388,18 +3288,23 @@
         <v>-17383351.93544846</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>4.02</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3331,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3370,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3409,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3534,16 +3448,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3487,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3604,18 +3524,23 @@
         <v>-17521993.95442284</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>3.958</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,16 +3567,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3676,18 +3604,23 @@
         <v>-17622472.29042284</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>3.951</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3712,18 +3645,23 @@
         <v>-17622472.29042284</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>3.951</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3748,18 +3686,23 @@
         <v>-17590716.06582284</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>3.951</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3784,18 +3727,23 @@
         <v>-17609491.26492284</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>3.953</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3820,18 +3768,23 @@
         <v>-17604003.60872284</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>3.952</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3856,18 +3809,23 @@
         <v>-17604128.60872284</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>3.999</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3892,18 +3850,23 @@
         <v>-17614263.37472284</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>3.997</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3928,18 +3891,23 @@
         <v>-17641249.36372284</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>3.957</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3964,18 +3932,23 @@
         <v>-17641123.36372284</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>3.953</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4000,22 +3973,23 @@
         <v>-18147064.21452284</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>3.997</v>
       </c>
       <c r="J100" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4040,26 +4014,23 @@
         <v>-18147064.21452284</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>3.953</v>
       </c>
       <c r="J101" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4084,26 +4055,23 @@
         <v>-18102828.11052284</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3.953</v>
       </c>
       <c r="J102" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4128,22 +4096,23 @@
         <v>-18077528.11052284</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3.988</v>
       </c>
       <c r="J103" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="K103" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4168,26 +4137,23 @@
         <v>-18089095.90492284</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>3.989</v>
       </c>
       <c r="J104" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4212,26 +4178,23 @@
         <v>-18088345.84225049</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>3.953</v>
       </c>
       <c r="J105" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K105" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4256,26 +4219,23 @@
         <v>-18168508.49925049</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>3.989</v>
       </c>
       <c r="J106" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="K106" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4300,26 +4260,23 @@
         <v>-18168508.49925049</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3.951</v>
       </c>
       <c r="J107" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="K107" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4344,26 +4301,23 @@
         <v>-18164558.56192284</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>3.951</v>
       </c>
       <c r="J108" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4388,26 +4342,23 @@
         <v>-18164558.56192284</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>3.989</v>
       </c>
       <c r="J109" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4432,26 +4383,23 @@
         <v>-18164558.56192284</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>3.989</v>
       </c>
       <c r="J110" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="K110" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4476,26 +4424,23 @@
         <v>-18153355.81862284</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>3.989</v>
       </c>
       <c r="J111" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="K111" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,26 +4465,23 @@
         <v>-18153230.81862284</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3.991</v>
       </c>
       <c r="J112" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="K112" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4564,26 +4506,23 @@
         <v>-18069226.38097191</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>4</v>
-      </c>
-      <c r="K113" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4608,26 +4547,23 @@
         <v>-18117421.42372097</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>4.015</v>
       </c>
       <c r="J114" t="n">
-        <v>4.015</v>
-      </c>
-      <c r="K114" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4652,26 +4588,23 @@
         <v>-18117421.42372097</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>4.011</v>
       </c>
       <c r="J115" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="K115" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4696,26 +4629,23 @@
         <v>-18117421.42372097</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>4.011</v>
       </c>
       <c r="J116" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4740,26 +4670,23 @@
         <v>-16995226.91792097</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>4.011</v>
       </c>
       <c r="J117" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4784,26 +4711,23 @@
         <v>-16997226.91797004</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>4.019</v>
       </c>
       <c r="J118" t="n">
-        <v>4.019</v>
-      </c>
-      <c r="K118" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4828,26 +4752,23 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>4.001</v>
       </c>
       <c r="J119" t="n">
-        <v>4.001</v>
-      </c>
-      <c r="K119" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4872,26 +4793,23 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>3.993</v>
       </c>
       <c r="J120" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4916,26 +4834,23 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>3.993</v>
       </c>
       <c r="J121" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="K121" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4960,26 +4875,23 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>3.993</v>
       </c>
       <c r="J122" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="K122" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5004,26 +4916,23 @@
         <v>-17137109.47487004</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>3.993</v>
       </c>
       <c r="J123" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5048,28 +4957,25 @@
         <v>-17137109.47487004</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3.992</v>
       </c>
       <c r="J124" t="n">
-        <v>3.992</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WET.xlsx
+++ b/BackTest/2020-01-22 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-11343678.37472757</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-11690685.00562757</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-11814119.65342757</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-11851250.21072757</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-11863781.56362757</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11970454.82042757</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-11981450.15242757</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11935992.01082757</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-11937352.01082757</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-12666676.68972757</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-13400108.64722757</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-13398784.64722757</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-14699061.05482757</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-14735995.15822757</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-14468785.65245615</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-14413310.60735615</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-14312832.27135615</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-14376873.58295615</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-14837366.63425615</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-14837153.49515615</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-14837353.49515615</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-14837020.49515615</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-14760301.29645615</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-14698117.59182757</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-15736286.46252757</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-15723794.10022757</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-15794724.52152757</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-15771761.07972757</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-15663208.40172757</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-15663208.40172757</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-15331545.91152757</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-15702834.12582757</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,10 +2233,14 @@
         <v>-15680570.03582757</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2268,9 +2272,17 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2311,19 @@
         <v>-15901250.32212757</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2352,19 @@
         <v>-15910799.85492757</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2393,19 @@
         <v>-15910799.85492757</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,15 +2434,19 @@
         <v>-15429970.41372757</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>3.94</v>
       </c>
       <c r="J61" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,17 +2475,17 @@
         <v>-15632513.37882757</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.95</v>
       </c>
       <c r="J62" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2476,17 +2516,17 @@
         <v>-15975636.64472757</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3.94</v>
       </c>
       <c r="J63" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2517,17 +2557,17 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>3.93</v>
       </c>
       <c r="J64" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2558,13 +2598,13 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>3.922</v>
       </c>
       <c r="J65" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2603,7 +2643,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2638,13 +2678,13 @@
         <v>-17301457.48962757</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>3.92</v>
       </c>
       <c r="J67" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2679,13 +2719,13 @@
         <v>-17294483.91882757</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>3.905</v>
       </c>
       <c r="J68" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2720,11 +2760,13 @@
         <v>-17288786.26572757</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.969</v>
+      </c>
       <c r="J69" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2759,13 +2801,13 @@
         <v>-17326264.26572757</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>3.99</v>
       </c>
       <c r="J70" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2800,11 +2842,13 @@
         <v>-17215392.24452757</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.985</v>
+      </c>
       <c r="J71" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2839,13 +2883,13 @@
         <v>-17326264.22332757</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>3.99</v>
       </c>
       <c r="J72" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2880,13 +2924,13 @@
         <v>-17316264.22332757</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>3.985</v>
       </c>
       <c r="J73" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2921,11 +2965,13 @@
         <v>-17215216.38352757</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.999</v>
+      </c>
       <c r="J74" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2960,13 +3006,13 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3001,13 +3047,13 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3.999</v>
       </c>
       <c r="J76" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3042,13 +3088,13 @@
         <v>-17299274.15832757</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3.999</v>
       </c>
       <c r="J77" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3083,13 +3129,13 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.995</v>
       </c>
       <c r="J78" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3124,13 +3170,13 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3.96</v>
       </c>
       <c r="J79" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3165,13 +3211,13 @@
         <v>-17395384.24632757</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3.96</v>
       </c>
       <c r="J80" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3206,13 +3252,13 @@
         <v>-17408055.47022757</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3247,13 +3293,13 @@
         <v>-17383159.66064847</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>3.958</v>
       </c>
       <c r="J82" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3288,13 +3334,13 @@
         <v>-17383351.93544846</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>4.02</v>
       </c>
       <c r="J83" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3329,11 +3375,13 @@
         <v>-17358445.01582284</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J84" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3368,11 +3416,13 @@
         <v>-17394375.98582284</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J85" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3407,11 +3457,13 @@
         <v>-17421409.46952284</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4.019</v>
+      </c>
       <c r="J86" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3446,11 +3498,13 @@
         <v>-17424125.71682284</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
       <c r="J87" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3485,11 +3539,13 @@
         <v>-17544265.43002284</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J88" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3524,13 +3580,13 @@
         <v>-17521993.95442284</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>3.958</v>
       </c>
       <c r="J89" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3565,11 +3621,13 @@
         <v>-17622472.29042284</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J90" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3604,13 +3662,13 @@
         <v>-17622472.29042284</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>3.951</v>
       </c>
       <c r="J91" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3645,13 +3703,13 @@
         <v>-17622472.29042284</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>3.951</v>
       </c>
       <c r="J92" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3686,13 +3744,13 @@
         <v>-17590716.06582284</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3.951</v>
       </c>
       <c r="J93" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3727,13 +3785,13 @@
         <v>-17609491.26492284</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3.953</v>
       </c>
       <c r="J94" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3768,13 +3826,13 @@
         <v>-17604003.60872284</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3.952</v>
       </c>
       <c r="J95" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3809,13 +3867,13 @@
         <v>-17604128.60872284</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>3.999</v>
       </c>
       <c r="J96" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3850,13 +3908,13 @@
         <v>-17614263.37472284</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>3.997</v>
       </c>
       <c r="J97" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3891,13 +3949,13 @@
         <v>-17641249.36372284</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>3.957</v>
       </c>
       <c r="J98" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3932,13 +3990,13 @@
         <v>-17641123.36372284</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>3.953</v>
       </c>
       <c r="J99" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3973,13 +4031,13 @@
         <v>-18147064.21452284</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>3.997</v>
       </c>
       <c r="J100" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4014,13 +4072,13 @@
         <v>-18147064.21452284</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>3.953</v>
       </c>
       <c r="J101" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4055,13 +4113,13 @@
         <v>-18102828.11052284</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3.953</v>
       </c>
       <c r="J102" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4096,13 +4154,13 @@
         <v>-18077528.11052284</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>3.988</v>
       </c>
       <c r="J103" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4137,13 +4195,13 @@
         <v>-18089095.90492284</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>3.989</v>
       </c>
       <c r="J104" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4178,13 +4236,13 @@
         <v>-18088345.84225049</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>3.953</v>
       </c>
       <c r="J105" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4219,13 +4277,13 @@
         <v>-18168508.49925049</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>3.989</v>
       </c>
       <c r="J106" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4260,13 +4318,13 @@
         <v>-18168508.49925049</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>3.951</v>
       </c>
       <c r="J107" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4301,13 +4359,13 @@
         <v>-18164558.56192284</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>3.951</v>
       </c>
       <c r="J108" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4342,13 +4400,13 @@
         <v>-18164558.56192284</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>3.989</v>
       </c>
       <c r="J109" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4383,13 +4441,13 @@
         <v>-18164558.56192284</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>3.989</v>
       </c>
       <c r="J110" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4424,13 +4482,13 @@
         <v>-18153355.81862284</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>3.989</v>
       </c>
       <c r="J111" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4465,13 +4523,13 @@
         <v>-18153230.81862284</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>3.991</v>
       </c>
       <c r="J112" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4506,13 +4564,13 @@
         <v>-18069226.38097191</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4547,13 +4605,13 @@
         <v>-18117421.42372097</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>4.015</v>
       </c>
       <c r="J114" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4588,13 +4646,13 @@
         <v>-18117421.42372097</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>4.011</v>
       </c>
       <c r="J115" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4629,13 +4687,13 @@
         <v>-18117421.42372097</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>4.011</v>
       </c>
       <c r="J116" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4670,13 +4728,13 @@
         <v>-16995226.91792097</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>4.011</v>
       </c>
       <c r="J117" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4711,13 +4769,11 @@
         <v>-16997226.91797004</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4752,13 +4808,11 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4.001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4793,13 +4847,11 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4834,13 +4886,13 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.993</v>
       </c>
       <c r="J121" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4875,13 +4927,13 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>3.993</v>
       </c>
       <c r="J122" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4916,13 +4968,13 @@
         <v>-17137109.47487004</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>3.993</v>
       </c>
       <c r="J123" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4957,13 +5009,13 @@
         <v>-17137109.47487004</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>3.992</v>
       </c>
       <c r="J124" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4976,6 +5028,6 @@
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WET.xlsx
+++ b/BackTest/2020-01-22 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-11343678.37472757</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-11690685.00562757</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-11814119.65342757</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-14735995.15822757</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-14434143.12365615</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-14468785.65245615</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-14413310.60735615</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-14312832.27135615</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-14376873.58295615</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-14837366.63425615</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-14841486.49515615</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-14837153.49515615</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-14837353.49515615</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-14837020.49515615</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-14760301.29645615</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-14672121.84842757</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-14698117.59182757</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-15736286.46252757</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-15723794.10022757</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-15794724.52152757</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-15771761.07972757</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-15331545.91152757</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-15702834.12582757</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,14 +2233,10 @@
         <v>-15680570.03582757</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2270,19 +2266,11 @@
         <v>-15949507.60532757</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2311,19 +2299,11 @@
         <v>-15901250.32212757</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,19 +2332,11 @@
         <v>-15910799.85492757</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2393,19 +2365,11 @@
         <v>-15910799.85492757</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2434,19 +2398,11 @@
         <v>-15429970.41372757</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2475,19 +2431,11 @@
         <v>-15632513.37882757</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2516,19 +2464,11 @@
         <v>-15975636.64472757</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2562,12 +2502,10 @@
       <c r="I64" t="n">
         <v>3.93</v>
       </c>
-      <c r="J64" t="n">
-        <v>3.93</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2598,14 +2536,10 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.922</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,9 +2576,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.93</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,14 +2610,10 @@
         <v>-17301457.48962757</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,9 +2652,7 @@
       <c r="I68" t="n">
         <v>3.905</v>
       </c>
-      <c r="J68" t="n">
-        <v>3.93</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,14 +2686,10 @@
         <v>-17288786.26572757</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2801,14 +2723,10 @@
         <v>-17326264.26572757</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,14 +2760,10 @@
         <v>-17215392.24452757</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,14 +2797,10 @@
         <v>-17326264.22332757</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2924,14 +2834,10 @@
         <v>-17316264.22332757</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,14 +2871,10 @@
         <v>-17215216.38352757</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,22 +2908,16 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -3047,19 +2943,11 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3088,19 +2976,11 @@
         <v>-17299274.15832757</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3129,19 +3009,11 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3170,19 +3042,11 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3217,13 +3081,9 @@
         <v>3.96</v>
       </c>
       <c r="J80" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.96</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +3118,11 @@
         <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3293,17 +3153,15 @@
         <v>-17383159.66064847</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3334,19 +3192,11 @@
         <v>-17383351.93544846</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3381,13 +3231,9 @@
         <v>3.97</v>
       </c>
       <c r="J84" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.97</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3422,11 +3268,11 @@
         <v>4.02</v>
       </c>
       <c r="J85" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3457,17 +3303,15 @@
         <v>-17421409.46952284</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4.019</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3498,19 +3342,11 @@
         <v>-17424125.71682284</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3539,19 +3375,11 @@
         <v>-17544265.43002284</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3586,13 +3414,9 @@
         <v>3.958</v>
       </c>
       <c r="J89" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.958</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3627,11 +3451,11 @@
         <v>3.97</v>
       </c>
       <c r="J90" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3668,7 +3492,7 @@
         <v>3.951</v>
       </c>
       <c r="J91" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3709,7 +3533,7 @@
         <v>3.951</v>
       </c>
       <c r="J92" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3750,7 +3574,7 @@
         <v>3.951</v>
       </c>
       <c r="J93" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3791,7 +3615,7 @@
         <v>3.953</v>
       </c>
       <c r="J94" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3832,7 +3656,7 @@
         <v>3.952</v>
       </c>
       <c r="J95" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3873,7 +3697,7 @@
         <v>3.999</v>
       </c>
       <c r="J96" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3914,7 +3738,7 @@
         <v>3.997</v>
       </c>
       <c r="J97" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3955,7 +3779,7 @@
         <v>3.957</v>
       </c>
       <c r="J98" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3996,7 +3820,7 @@
         <v>3.953</v>
       </c>
       <c r="J99" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4037,7 +3861,7 @@
         <v>3.997</v>
       </c>
       <c r="J100" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4078,7 +3902,7 @@
         <v>3.953</v>
       </c>
       <c r="J101" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4119,7 +3943,7 @@
         <v>3.953</v>
       </c>
       <c r="J102" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4160,7 +3984,7 @@
         <v>3.988</v>
       </c>
       <c r="J103" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4201,7 +4025,7 @@
         <v>3.989</v>
       </c>
       <c r="J104" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4242,7 +4066,7 @@
         <v>3.953</v>
       </c>
       <c r="J105" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4283,7 +4107,7 @@
         <v>3.989</v>
       </c>
       <c r="J106" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4324,7 +4148,7 @@
         <v>3.951</v>
       </c>
       <c r="J107" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4365,7 +4189,7 @@
         <v>3.951</v>
       </c>
       <c r="J108" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4406,7 +4230,7 @@
         <v>3.989</v>
       </c>
       <c r="J109" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4447,7 +4271,7 @@
         <v>3.989</v>
       </c>
       <c r="J110" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4488,7 +4312,7 @@
         <v>3.989</v>
       </c>
       <c r="J111" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4529,7 +4353,7 @@
         <v>3.991</v>
       </c>
       <c r="J112" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4570,7 +4394,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4611,7 +4435,7 @@
         <v>4.015</v>
       </c>
       <c r="J114" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4652,7 +4476,7 @@
         <v>4.011</v>
       </c>
       <c r="J115" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4693,7 +4517,7 @@
         <v>4.011</v>
       </c>
       <c r="J116" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4734,7 +4558,7 @@
         <v>4.011</v>
       </c>
       <c r="J117" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4769,11 +4593,13 @@
         <v>-16997226.91797004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.019</v>
+      </c>
       <c r="J118" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4808,11 +4634,13 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4.001</v>
+      </c>
       <c r="J119" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4847,11 +4675,13 @@
         <v>-17133109.47487004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.993</v>
+      </c>
       <c r="J120" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4892,7 +4722,7 @@
         <v>3.993</v>
       </c>
       <c r="J121" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4933,7 +4763,7 @@
         <v>3.993</v>
       </c>
       <c r="J122" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4974,7 +4804,7 @@
         <v>3.993</v>
       </c>
       <c r="J123" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5015,7 +4845,7 @@
         <v>3.992</v>
       </c>
       <c r="J124" t="n">
-        <v>3.93</v>
+        <v>3.958</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5028,6 +4858,6 @@
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WET.xlsx
+++ b/BackTest/2020-01-22 BackTest WET.xlsx
@@ -451,7 +451,7 @@
         <v>-11343678.37472757</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-11690685.00562757</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-11814119.65342757</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-11851250.21072757</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-11912152.36432757</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-11863781.56362757</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11970454.82042757</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-11981450.15242757</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11936122.01082757</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11935992.01082757</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-11937352.01082757</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11938512.01082757</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-12666676.68972757</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-12649028.79002757</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-13400108.64722757</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-13398784.64722757</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-14699239.61062757</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-14699061.05482757</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-14468587.12365615</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-14434143.12345615</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-14413310.60735615</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-14312832.27135615</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-14376873.58295615</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-14837366.63425615</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-14837243.63425615</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-15723794.10022757</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-15794724.52152757</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-15771761.07972757</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-15331545.91152757</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-15702834.12582757</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-15949507.60532757</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-15901250.32212757</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-15910799.85492757</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2497,17 +2497,11 @@
         <v>-17296349.76512757</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2540,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2577,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2614,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2647,17 +2629,11 @@
         <v>-17294483.91882757</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2686,15 +2662,11 @@
         <v>-17288786.26572757</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2723,15 +2695,11 @@
         <v>-17326264.26572757</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2760,15 +2728,11 @@
         <v>-17215392.24452757</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,15 +2761,11 @@
         <v>-17326264.22332757</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2834,15 +2794,11 @@
         <v>-17316264.22332757</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2871,15 +2827,11 @@
         <v>-17215216.38352757</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2908,16 +2860,14 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
       <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2943,7 +2893,7 @@
         <v>-17279274.15832757</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2976,7 +2926,7 @@
         <v>-17299274.15832757</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3009,7 +2959,7 @@
         <v>-17407456.74002757</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3112,11 +3062,9 @@
         <v>-17408055.47022757</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>3.96</v>
       </c>
@@ -3262,11 +3210,9 @@
         <v>-17394375.98582284</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>3.97</v>
       </c>
@@ -3303,7 +3249,7 @@
         <v>-17421409.46952284</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
@@ -3342,7 +3288,7 @@
         <v>-17424125.71682284</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3408,14 +3354,10 @@
         <v>-17521993.95442284</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3450,9 +3392,7 @@
       <c r="I90" t="n">
         <v>3.97</v>
       </c>
-      <c r="J90" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3491,9 +3431,7 @@
       <c r="I91" t="n">
         <v>3.951</v>
       </c>
-      <c r="J91" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,9 +3470,7 @@
       <c r="I92" t="n">
         <v>3.951</v>
       </c>
-      <c r="J92" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3573,9 +3509,7 @@
       <c r="I93" t="n">
         <v>3.951</v>
       </c>
-      <c r="J93" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,9 +3548,7 @@
       <c r="I94" t="n">
         <v>3.953</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,9 +3587,7 @@
       <c r="I95" t="n">
         <v>3.952</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,9 +3626,7 @@
       <c r="I96" t="n">
         <v>3.999</v>
       </c>
-      <c r="J96" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,9 +3665,7 @@
       <c r="I97" t="n">
         <v>3.997</v>
       </c>
-      <c r="J97" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,9 +3704,7 @@
       <c r="I98" t="n">
         <v>3.957</v>
       </c>
-      <c r="J98" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,9 +3743,7 @@
       <c r="I99" t="n">
         <v>3.953</v>
       </c>
-      <c r="J99" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,9 +3782,7 @@
       <c r="I100" t="n">
         <v>3.997</v>
       </c>
-      <c r="J100" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,9 +3821,7 @@
       <c r="I101" t="n">
         <v>3.953</v>
       </c>
-      <c r="J101" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,9 +3860,7 @@
       <c r="I102" t="n">
         <v>3.953</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,9 +3899,7 @@
       <c r="I103" t="n">
         <v>3.988</v>
       </c>
-      <c r="J103" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,9 +3938,7 @@
       <c r="I104" t="n">
         <v>3.989</v>
       </c>
-      <c r="J104" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,9 +3977,7 @@
       <c r="I105" t="n">
         <v>3.953</v>
       </c>
-      <c r="J105" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,9 +4016,7 @@
       <c r="I106" t="n">
         <v>3.989</v>
       </c>
-      <c r="J106" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,9 +4055,7 @@
       <c r="I107" t="n">
         <v>3.951</v>
       </c>
-      <c r="J107" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,9 +4094,7 @@
       <c r="I108" t="n">
         <v>3.951</v>
       </c>
-      <c r="J108" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,9 +4133,7 @@
       <c r="I109" t="n">
         <v>3.989</v>
       </c>
-      <c r="J109" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,9 +4172,7 @@
       <c r="I110" t="n">
         <v>3.989</v>
       </c>
-      <c r="J110" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,9 +4211,7 @@
       <c r="I111" t="n">
         <v>3.989</v>
       </c>
-      <c r="J111" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4352,9 +4250,7 @@
       <c r="I112" t="n">
         <v>3.991</v>
       </c>
-      <c r="J112" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4393,9 +4289,7 @@
       <c r="I113" t="n">
         <v>4</v>
       </c>
-      <c r="J113" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4434,9 +4328,7 @@
       <c r="I114" t="n">
         <v>4.015</v>
       </c>
-      <c r="J114" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,9 +4367,7 @@
       <c r="I115" t="n">
         <v>4.011</v>
       </c>
-      <c r="J115" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4516,9 +4406,7 @@
       <c r="I116" t="n">
         <v>4.011</v>
       </c>
-      <c r="J116" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,9 +4445,7 @@
       <c r="I117" t="n">
         <v>4.011</v>
       </c>
-      <c r="J117" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4598,9 +4484,7 @@
       <c r="I118" t="n">
         <v>4.019</v>
       </c>
-      <c r="J118" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4639,9 +4523,7 @@
       <c r="I119" t="n">
         <v>4.001</v>
       </c>
-      <c r="J119" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,9 +4562,7 @@
       <c r="I120" t="n">
         <v>3.993</v>
       </c>
-      <c r="J120" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,9 +4601,7 @@
       <c r="I121" t="n">
         <v>3.993</v>
       </c>
-      <c r="J121" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,9 +4640,7 @@
       <c r="I122" t="n">
         <v>3.993</v>
       </c>
-      <c r="J122" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4803,9 +4679,7 @@
       <c r="I123" t="n">
         <v>3.993</v>
       </c>
-      <c r="J123" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,9 +4718,7 @@
       <c r="I124" t="n">
         <v>3.992</v>
       </c>
-      <c r="J124" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-22 BackTest WET.xlsx
+++ b/BackTest/2020-01-22 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1560</v>
       </c>
       <c r="G2" t="n">
-        <v>-11343678.37472757</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>347006.6309</v>
       </c>
       <c r="G3" t="n">
-        <v>-11690685.00562757</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>123434.6478</v>
       </c>
       <c r="G4" t="n">
-        <v>-11814119.65342757</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>37130.5573</v>
       </c>
       <c r="G5" t="n">
-        <v>-11851250.21072757</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>60902.1536</v>
       </c>
       <c r="G6" t="n">
-        <v>-11912152.36432757</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>95559.9785</v>
       </c>
       <c r="G7" t="n">
-        <v>-11912152.36432757</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>48370.8007</v>
       </c>
       <c r="G8" t="n">
-        <v>-11863781.56362757</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>106673.2568</v>
       </c>
       <c r="G9" t="n">
-        <v>-11970454.82042757</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10995.332</v>
       </c>
       <c r="G10" t="n">
-        <v>-11981450.15242757</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>45328.1416</v>
       </c>
       <c r="G11" t="n">
-        <v>-11936122.01082757</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4224</v>
       </c>
       <c r="G12" t="n">
-        <v>-11936122.01082757</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>130</v>
       </c>
       <c r="G13" t="n">
-        <v>-11935992.01082757</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1360</v>
       </c>
       <c r="G14" t="n">
-        <v>-11937352.01082757</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1160</v>
       </c>
       <c r="G15" t="n">
-        <v>-11938512.01082757</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>185040.2583</v>
       </c>
       <c r="G16" t="n">
-        <v>-11938512.01082757</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>14704.8323</v>
       </c>
       <c r="G17" t="n">
-        <v>-11938512.01082757</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>728164.6789000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-12666676.68972757</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>17647.8997</v>
       </c>
       <c r="G19" t="n">
-        <v>-12649028.79002757</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>468099.1644</v>
       </c>
       <c r="G20" t="n">
-        <v>-12649028.79002757</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>751079.8572</v>
       </c>
       <c r="G21" t="n">
-        <v>-13400108.64722757</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1324</v>
       </c>
       <c r="G22" t="n">
-        <v>-13398784.64722757</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1300454.9634</v>
       </c>
       <c r="G23" t="n">
-        <v>-14699239.61062757</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>217105.3559</v>
       </c>
       <c r="G24" t="n">
-        <v>-14699239.61062757</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>178.5558</v>
       </c>
       <c r="G25" t="n">
-        <v>-14699061.05482757</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>36934.1034</v>
       </c>
       <c r="G26" t="n">
-        <v>-14735995.15822757</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>267408.0345714216</v>
       </c>
       <c r="G27" t="n">
-        <v>-14468587.12365615</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>-14468587.12365615</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>34444</v>
       </c>
       <c r="G29" t="n">
-        <v>-14434143.12365615</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>28624.5211</v>
       </c>
       <c r="G30" t="n">
-        <v>-14434143.12365615</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>34642.5288</v>
       </c>
       <c r="G31" t="n">
-        <v>-14468785.65245615</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>34642.529</v>
       </c>
       <c r="G32" t="n">
-        <v>-14434143.12345615</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>21953.7647</v>
       </c>
       <c r="G33" t="n">
-        <v>-14434143.12345615</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>20832.5161</v>
       </c>
       <c r="G34" t="n">
-        <v>-14413310.60735615</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>100478.336</v>
       </c>
       <c r="G35" t="n">
-        <v>-14312832.27135615</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>64041.3116</v>
       </c>
       <c r="G36" t="n">
-        <v>-14376873.58295615</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>460493.0513</v>
       </c>
       <c r="G37" t="n">
-        <v>-14837366.63425615</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>123</v>
       </c>
       <c r="G38" t="n">
-        <v>-14837243.63425615</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4242.8609</v>
       </c>
       <c r="G39" t="n">
-        <v>-14837243.63425615</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4242.8609</v>
       </c>
       <c r="G40" t="n">
-        <v>-14841486.49515615</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4333</v>
       </c>
       <c r="G41" t="n">
-        <v>-14837153.49515615</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>-14837353.49515615</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>333</v>
       </c>
       <c r="G43" t="n">
-        <v>-14837020.49515615</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>76719.19869999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-14760301.29645615</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>88179.44802857838</v>
       </c>
       <c r="G45" t="n">
-        <v>-14672121.84842757</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>13085.56127142162</v>
       </c>
       <c r="G46" t="n">
-        <v>-14672121.84842757</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>25995.7434</v>
       </c>
       <c r="G47" t="n">
-        <v>-14698117.59182757</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1038168.8707</v>
       </c>
       <c r="G48" t="n">
-        <v>-15736286.46252757</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>12492.3623</v>
       </c>
       <c r="G49" t="n">
-        <v>-15723794.10022757</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>70930.4213</v>
       </c>
       <c r="G50" t="n">
-        <v>-15794724.52152757</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>22963.4418</v>
       </c>
       <c r="G51" t="n">
-        <v>-15771761.07972757</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>108552.678</v>
       </c>
       <c r="G52" t="n">
-        <v>-15663208.40172757</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>169997.1803</v>
       </c>
       <c r="G53" t="n">
-        <v>-15663208.40172757</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>331662.4902</v>
       </c>
       <c r="G54" t="n">
-        <v>-15331545.91152757</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>371288.2143</v>
       </c>
       <c r="G55" t="n">
-        <v>-15702834.12582757</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>22264.09</v>
       </c>
       <c r="G56" t="n">
-        <v>-15680570.03582757</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>268937.5695</v>
       </c>
       <c r="G57" t="n">
-        <v>-15949507.60532757</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>48257.2832</v>
       </c>
       <c r="G58" t="n">
-        <v>-15901250.32212757</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>9549.532800000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-15910799.85492757</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>473476.7959</v>
       </c>
       <c r="G60" t="n">
-        <v>-15910799.85492757</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>480829.4412</v>
       </c>
       <c r="G61" t="n">
-        <v>-15429970.41372757</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>202542.9651</v>
       </c>
       <c r="G62" t="n">
-        <v>-15632513.37882757</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>343123.2659</v>
       </c>
       <c r="G63" t="n">
-        <v>-15975636.64472757</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1320713.1204</v>
       </c>
       <c r="G64" t="n">
-        <v>-17296349.76512757</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1869.1784</v>
       </c>
       <c r="G65" t="n">
-        <v>-17296349.76512757</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1387.7245</v>
       </c>
       <c r="G66" t="n">
-        <v>-17297737.48962757</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,19 @@
         <v>3720</v>
       </c>
       <c r="G67" t="n">
-        <v>-17301457.48962757</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2427,23 @@
         <v>6973.5708</v>
       </c>
       <c r="G68" t="n">
-        <v>-17294483.91882757</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>3.905</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2465,23 @@
         <v>5697.6531</v>
       </c>
       <c r="G69" t="n">
-        <v>-17288786.26572757</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>3.969</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2503,19 @@
         <v>37478</v>
       </c>
       <c r="G70" t="n">
-        <v>-17326264.26572757</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2537,23 @@
         <v>110872.0212</v>
       </c>
       <c r="G71" t="n">
-        <v>-17215392.24452757</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>3.985</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2575,23 @@
         <v>110871.9788</v>
       </c>
       <c r="G72" t="n">
-        <v>-17326264.22332757</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2613,23 @@
         <v>10000</v>
       </c>
       <c r="G73" t="n">
-        <v>-17316264.22332757</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>3.985</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2651,23 @@
         <v>101047.8398</v>
       </c>
       <c r="G74" t="n">
-        <v>-17215216.38352757</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>3.999</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2689,21 @@
         <v>64057.7748</v>
       </c>
       <c r="G75" t="n">
-        <v>-17279274.15832757</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2725,23 @@
         <v>334162.6488</v>
       </c>
       <c r="G76" t="n">
-        <v>-17279274.15832757</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>3.999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2763,21 @@
         <v>20000</v>
       </c>
       <c r="G77" t="n">
-        <v>-17299274.15832757</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2799,21 @@
         <v>108182.5817</v>
       </c>
       <c r="G78" t="n">
-        <v>-17407456.74002757</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2835,21 @@
         <v>12254.8036</v>
       </c>
       <c r="G79" t="n">
-        <v>-17407456.74002757</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,22 +2871,21 @@
         <v>12072.4937</v>
       </c>
       <c r="G80" t="n">
-        <v>-17395384.24632757</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3059,24 +2907,21 @@
         <v>12671.2239</v>
       </c>
       <c r="G81" t="n">
-        <v>-17408055.47022757</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3098,24 +2943,21 @@
         <v>24895.80957910448</v>
       </c>
       <c r="G82" t="n">
-        <v>-17383159.66064847</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3137,18 +2979,21 @@
         <v>192.2748</v>
       </c>
       <c r="G83" t="n">
-        <v>-17383351.93544846</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3170,22 +3015,23 @@
         <v>24906.91962562189</v>
       </c>
       <c r="G84" t="n">
-        <v>-17358445.01582284</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>3.97</v>
       </c>
       <c r="I84" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3207,24 +3053,21 @@
         <v>35930.97</v>
       </c>
       <c r="G85" t="n">
-        <v>-17394375.98582284</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3246,24 +3089,21 @@
         <v>27033.4837</v>
       </c>
       <c r="G86" t="n">
-        <v>-17421409.46952284</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3285,18 +3125,21 @@
         <v>2716.2473</v>
       </c>
       <c r="G87" t="n">
-        <v>-17424125.71682284</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3318,18 +3161,21 @@
         <v>120139.7132</v>
       </c>
       <c r="G88" t="n">
-        <v>-17544265.43002284</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3351,18 +3197,21 @@
         <v>22271.4756</v>
       </c>
       <c r="G89" t="n">
-        <v>-17521993.95442284</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3384,24 +3233,23 @@
         <v>100478.336</v>
       </c>
       <c r="G90" t="n">
-        <v>-17622472.29042284</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>3.97</v>
       </c>
       <c r="I90" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3423,24 +3271,23 @@
         <v>226656.6882</v>
       </c>
       <c r="G91" t="n">
-        <v>-17622472.29042284</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>3.951</v>
       </c>
       <c r="I91" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3462,24 +3309,23 @@
         <v>123632.967549066</v>
       </c>
       <c r="G92" t="n">
-        <v>-17622472.29042284</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>3.951</v>
       </c>
       <c r="I92" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3501,24 +3347,23 @@
         <v>31756.2246</v>
       </c>
       <c r="G93" t="n">
-        <v>-17590716.06582284</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3.951</v>
       </c>
       <c r="I93" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3540,24 +3385,23 @@
         <v>18775.1991</v>
       </c>
       <c r="G94" t="n">
-        <v>-17609491.26492284</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>3.953</v>
       </c>
       <c r="I94" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3579,24 +3423,23 @@
         <v>5487.6562</v>
       </c>
       <c r="G95" t="n">
-        <v>-17604003.60872284</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>3.952</v>
       </c>
       <c r="I95" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3618,24 +3461,21 @@
         <v>125</v>
       </c>
       <c r="G96" t="n">
-        <v>-17604128.60872284</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3657,24 +3497,21 @@
         <v>10134.766</v>
       </c>
       <c r="G97" t="n">
-        <v>-17614263.37472284</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3696,24 +3533,21 @@
         <v>26985.989</v>
       </c>
       <c r="G98" t="n">
-        <v>-17641249.36372284</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>3.957</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3735,24 +3569,21 @@
         <v>126</v>
       </c>
       <c r="G99" t="n">
-        <v>-17641123.36372284</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3774,24 +3605,21 @@
         <v>505940.8508</v>
       </c>
       <c r="G100" t="n">
-        <v>-18147064.21452284</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3813,24 +3641,21 @@
         <v>1536.6286</v>
       </c>
       <c r="G101" t="n">
-        <v>-18147064.21452284</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3852,24 +3677,21 @@
         <v>44236.104</v>
       </c>
       <c r="G102" t="n">
-        <v>-18102828.11052284</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3891,24 +3713,21 @@
         <v>25300</v>
       </c>
       <c r="G103" t="n">
-        <v>-18077528.11052284</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3930,24 +3749,21 @@
         <v>11567.7944</v>
       </c>
       <c r="G104" t="n">
-        <v>-18089095.90492284</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3969,24 +3785,21 @@
         <v>750.0626723489596</v>
       </c>
       <c r="G105" t="n">
-        <v>-18088345.84225049</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4008,24 +3821,21 @@
         <v>80162.65700000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-18168508.49925049</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4047,24 +3857,21 @@
         <v>124098.4366</v>
       </c>
       <c r="G107" t="n">
-        <v>-18168508.49925049</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4086,24 +3893,21 @@
         <v>3949.937327651041</v>
       </c>
       <c r="G108" t="n">
-        <v>-18164558.56192284</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4125,24 +3929,21 @@
         <v>34000</v>
       </c>
       <c r="G109" t="n">
-        <v>-18164558.56192284</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4164,24 +3965,21 @@
         <v>30.89707234895964</v>
       </c>
       <c r="G110" t="n">
-        <v>-18164558.56192284</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4203,24 +4001,21 @@
         <v>11202.7433</v>
       </c>
       <c r="G111" t="n">
-        <v>-18153355.81862284</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4242,24 +4037,21 @@
         <v>125</v>
       </c>
       <c r="G112" t="n">
-        <v>-18153230.81862284</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4281,24 +4073,21 @@
         <v>84004.43765093399</v>
       </c>
       <c r="G113" t="n">
-        <v>-18069226.38097191</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>4</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4320,24 +4109,21 @@
         <v>48195.042749066</v>
       </c>
       <c r="G114" t="n">
-        <v>-18117421.42372097</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>4.015</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4359,24 +4145,21 @@
         <v>1804.957250933998</v>
       </c>
       <c r="G115" t="n">
-        <v>-18117421.42372097</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4398,24 +4181,21 @@
         <v>26545.4568</v>
       </c>
       <c r="G116" t="n">
-        <v>-18117421.42372097</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4437,24 +4217,21 @@
         <v>1122194.5058</v>
       </c>
       <c r="G117" t="n">
-        <v>-16995226.91792097</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4476,24 +4253,21 @@
         <v>2000.000049066002</v>
       </c>
       <c r="G118" t="n">
-        <v>-16997226.91797004</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>4.019</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4515,24 +4289,21 @@
         <v>135882.5569</v>
       </c>
       <c r="G119" t="n">
-        <v>-17133109.47487004</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>4.001</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4554,24 +4325,21 @@
         <v>63953.4064</v>
       </c>
       <c r="G120" t="n">
-        <v>-17133109.47487004</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4593,24 +4361,21 @@
         <v>249.2811</v>
       </c>
       <c r="G121" t="n">
-        <v>-17133109.47487004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4632,24 +4397,21 @@
         <v>33112.0694</v>
       </c>
       <c r="G122" t="n">
-        <v>-17133109.47487004</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4671,24 +4433,21 @@
         <v>4000</v>
       </c>
       <c r="G123" t="n">
-        <v>-17137109.47487004</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4710,24 +4469,21 @@
         <v>60600.4532</v>
       </c>
       <c r="G124" t="n">
-        <v>-17137109.47487004</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>3.992</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>3.99</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
